--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4402.281511394282</v>
+        <v>876054.0207674622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4402.281511394282</v>
+        <v>876054.0207674622</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95277.51269255539</v>
+        <v>6589147.367335442</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95277.51269255539</v>
+        <v>6589147.367335442</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190697382.632746</v>
+        <v>44788776.66706759</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14648.5065531558</v>
+        <v>1298694.87748133</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26699.40774017595</v>
+        <v>2138458.903909612</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38750.8356208379</v>
+        <v>2978222.930337894</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50861.05736931397</v>
+        <v>3815460.659280338</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62965.86235677436</v>
+        <v>4655110.020620099</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75067.5091260426</v>
+        <v>5494130.896539625</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87116.13612803954</v>
+        <v>6354247.186071649</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99127.10781694429</v>
+        <v>7206870.068298322</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111199.6742523281</v>
+        <v>8036614.389935411</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123304.4792397886</v>
+        <v>8876263.751275165</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135406.1260090569</v>
+        <v>9715284.627194686</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147507.7727783251</v>
+        <v>10554305.50311421</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159609.4195475935</v>
+        <v>11393326.37903374</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>171719.6412960696</v>
+        <v>12230564.10797618</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183831.3356187545</v>
+        <v>13049051.88569193</v>
       </c>
     </row>
   </sheetData>
